--- a/个人定投试验.xlsx
+++ b/个人定投试验.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="博时黄金" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
                   <c:v>270.351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1624000000000001</c:v>
+                  <c:v>269.69549999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1176999999999999</c:v>
@@ -1192,70 +1192,70 @@
                   <c:v>-5.49507516848112E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.49976940028549754</c:v>
+                  <c:v>-5.2763419680898257E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.41217876610637483</c:v>
+                  <c:v>-0.59909247777859309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.32736188171267222</c:v>
+                  <c:v>-0.48976767008333816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.25372162581013208</c:v>
+                  <c:v>-0.40060353087274764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19772172200762456</c:v>
+                  <c:v>-0.33151725597713066</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.16304251791108257</c:v>
+                  <c:v>-0.28408018762235515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.13745576442341337</c:v>
+                  <c:v>-0.24764946107541946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.2437897448462786E-2</c:v>
+                  <c:v>-0.19703366179532242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3596735246918892E-2</c:v>
+                  <c:v>-0.1270247820123464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.4670405300705492E-2</c:v>
+                  <c:v>-0.17275656752482521</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.15945555622615706</c:v>
+                  <c:v>-0.23272338468549267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.12425832629214421</c:v>
+                  <c:v>-0.19489949289530331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.12777019124288092</c:v>
+                  <c:v>-0.19296175005165084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.10675145807929773</c:v>
+                  <c:v>-0.16914384885885581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.7597394561419369E-2</c:v>
+                  <c:v>-0.13821124416168198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.7228845267304252E-2</c:v>
+                  <c:v>-0.13435746792418229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.8029258232475214E-2</c:v>
+                  <c:v>-0.15065788675419561</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.10792070830234596</c:v>
+                  <c:v>-0.15712271646167808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.12029467320581851</c:v>
+                  <c:v>-0.16623664081370035</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.14481478572190346</c:v>
+                  <c:v>-0.18710922139863839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.18967233488591712</c:v>
+                  <c:v>-0.22754689915471193</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.26147324879398465</c:v>
+                  <c:v>-0.29392196438410301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10645,8 +10645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10806,39 +10806,42 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1.1624000000000001</v>
+        <v>269.69549999999998</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>140.23629480066546</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>105.47164255229208</v>
+      </c>
+      <c r="F8" s="3">
+        <f>E8-E7</f>
+        <v>35.08486190174996</v>
+      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>70.150485849876645</v>
+        <v>104.91513809825005</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="4"/>
-        <v>60.349695328524277</v>
+        <v>0.38901330611096618</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.49976940028549754</v>
+        <v>-5.2763419680898257E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>-70.085808950788817</v>
+        <v>-0.55650445404202742</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ref="L8:L29" si="6">(J8-J7)/J7</f>
-        <v>89.948601240633721</v>
+        <v>-3.9805315429698444E-2</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="5"/>
-        <v>-0.99570040428923878</v>
+        <v>-2.424625764284274E-3</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -10850,7 +10853,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>176.58221703053471</v>
+        <v>175.326591930387</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -10858,27 +10861,27 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>103.79877669856083</v>
+        <v>70.289749550335159</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="4"/>
-        <v>92.868190658102208</v>
+        <v>62.887849646895546</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>-0.41217876610637483</v>
+        <v>-0.59909247777859309</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>-72.783440331973878</v>
+        <v>-105.03684238005184</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="6"/>
-        <v>-0.17526209913829421</v>
+        <v>112.54314815108171</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="5"/>
-        <v>-3.8454920853406897E-2</v>
+        <v>-0.99585569651699779</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -10890,7 +10893,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>210.24822758792936</v>
+        <v>208.99260248778165</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
@@ -10898,23 +10901,23 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>141.42097217799065</v>
+        <v>106.63478250268757</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="4"/>
-        <v>121.88310969403658</v>
+        <v>91.902768682829915</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32736188171267222</v>
+        <v>-0.48976767008333816</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>-68.827255409938715</v>
+        <v>-102.35781998509408</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="6"/>
-        <v>-0.20577693798960309</v>
+        <v>-0.18248402667418928</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="5"/>
@@ -10930,7 +10933,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>243.50471297963841</v>
+        <v>242.2490878794907</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
@@ -10938,23 +10941,23 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>181.72230131001498</v>
+        <v>145.20324792426419</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="4"/>
-        <v>149.18504335441671</v>
+        <v>119.20470234321006</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25372162581013208</v>
+        <v>-0.40060353087274764</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>-61.782411669623428</v>
+        <v>-97.045839955226512</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="6"/>
-        <v>-0.22495061281195439</v>
+        <v>-0.18205395059134566</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="5"/>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>277.15999579714105</v>
+        <v>275.9043706969934</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
@@ -10978,23 +10981,23 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>222.35944415650434</v>
+        <v>184.43731081142909</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="4"/>
-        <v>175.79211333425908</v>
+        <v>145.81177232305248</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19772172200762456</v>
+        <v>-0.33151725597713066</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>-54.800551640636712</v>
+        <v>-91.467059885564311</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="6"/>
-        <v>-0.22071395618603684</v>
+        <v>-0.17245548172056013</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="5"/>
@@ -11010,7 +11013,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>311.5291158856856</v>
+        <v>310.27349078553794</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -11018,23 +11021,23 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>260.73662442906999</v>
+        <v>222.13093930893925</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="4"/>
-        <v>202.48242947042786</v>
+        <v>172.50208845922126</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16304251791108257</v>
+        <v>-0.28408018762235515</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>-50.792491456615608</v>
+        <v>-88.142551476598697</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="6"/>
-        <v>-0.17539400195596458</v>
+        <v>-0.14309079693289903</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="5"/>
@@ -11050,7 +11053,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>346.09695000854032</v>
+        <v>344.84132490839266</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
@@ -11058,23 +11061,23 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>298.52392918050452</v>
+        <v>259.44155663829559</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>228.99963883131673</v>
+        <v>199.01929782011013</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-0.13745576442341337</v>
+        <v>-0.24764946107541946</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>-47.573020828035794</v>
+        <v>-85.39976827009707</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="6"/>
-        <v>-0.15693301241595939</v>
+        <v>-0.12824099720521601</v>
       </c>
       <c r="M14" s="10">
         <f t="shared" si="5"/>
@@ -11090,7 +11093,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>379.63369440866308</v>
+        <v>378.37806930851542</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
@@ -11098,23 +11101,23 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>344.54115389693402</v>
+        <v>303.82485276961432</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>253.69350850227082</v>
+        <v>223.71316749106421</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-9.2437897448462786E-2</v>
+        <v>-0.19703366179532242</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>-35.092540511729055</v>
+        <v>-74.553216538901097</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="6"/>
-        <v>-0.32750803259352079</v>
+        <v>-0.20438485535279421</v>
       </c>
       <c r="M15" s="10">
         <f t="shared" si="5"/>
@@ -11130,7 +11133,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>412.05656459495276</v>
+        <v>410.80093949480511</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
@@ -11138,23 +11141,23 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>402.33337493345073</v>
+        <v>358.61903970501038</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="4"/>
-        <v>275.92989159416413</v>
+        <v>245.94955058295756</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-2.3596735246918892E-2</v>
+        <v>-0.1270247820123464</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>-9.7231896615020332</v>
+        <v>-52.181899789794727</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="6"/>
-        <v>-0.74472877576997176</v>
+        <v>-0.35531431099169686</v>
       </c>
       <c r="M16" s="10">
         <f t="shared" si="5"/>
@@ -11170,7 +11173,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>449.52175902606172</v>
+        <v>448.26613392591406</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
@@ -11178,23 +11181,23 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>411.460569497839</v>
+        <v>370.82521529124955</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>303.57132174844253</v>
+        <v>273.59098073723595</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-8.4670405300705492E-2</v>
+        <v>-0.17275656752482521</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>-38.061189528222712</v>
+        <v>-77.440918634664513</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="6"/>
-        <v>2.5882254224876808</v>
+        <v>0.36002254668725842</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="5"/>
@@ -11210,7 +11213,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>487.90194199787817</v>
+        <v>486.64631689773051</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
@@ -11218,23 +11221,23 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>410.10326645278428</v>
+        <v>373.39233888456181</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>334.91487664580183</v>
+        <v>304.93453563459525</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15945555622615706</v>
+        <v>-0.23272338468549267</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>-77.798675545093886</v>
+        <v>-113.25397801316871</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="6"/>
-        <v>0.88325018239671094</v>
+        <v>0.34711743825339775</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="5"/>
@@ -11250,7 +11253,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>521.79577621592637</v>
+        <v>520.54015111577871</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
@@ -11258,23 +11261,23 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>456.95830639702513</v>
+        <v>419.08713963166889</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>361.74660101094446</v>
+        <v>331.76625999973788</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12425832629214421</v>
+        <v>-0.19489949289530331</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>-64.837469818901241</v>
+        <v>-101.45301148410982</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="6"/>
-        <v>-0.22073379421217748</v>
+        <v>-0.16252725028602247</v>
       </c>
       <c r="M19" s="10">
         <f t="shared" si="5"/>
@@ -11290,7 +11293,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>557.28342662757927</v>
+        <v>556.02780152743162</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
@@ -11298,23 +11301,23 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>486.07921663088547</v>
+        <v>448.73570386732644</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="4"/>
-        <v>390.23700757135947</v>
+        <v>360.25666656015289</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12777019124288092</v>
+        <v>-0.19296175005165084</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>-71.204209996693805</v>
+        <v>-107.29209766010518</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="6"/>
-        <v>2.8262612699932417E-2</v>
+        <v>-9.942267241779823E-3</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="5"/>
@@ -11330,7 +11333,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>591.70458911955097</v>
+        <v>590.44896401940332</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
@@ -11338,23 +11341,23 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>528.53926147882714</v>
+        <v>490.57815369043738</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="4"/>
-        <v>417.421624924046</v>
+        <v>387.44128391283942</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-0.10675145807929773</v>
+        <v>-0.16914384885885581</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>-63.165327640723831</v>
+        <v>-99.870810328965945</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="6"/>
-        <v>-0.16450420054258397</v>
+        <v>-0.12343327725012651</v>
       </c>
       <c r="M21" s="10">
         <f t="shared" si="5"/>
@@ -11370,7 +11373,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>625.73712742313649</v>
+        <v>624.48150232298883</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
@@ -11378,23 +11381,23 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>577.18155665475422</v>
+        <v>538.17113693097224</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="4"/>
-        <v>443.57635771192298</v>
+        <v>413.5960167007164</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-7.7597394561419369E-2</v>
+        <v>-0.13821124416168198</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="1"/>
-        <v>-48.555570768382267</v>
+        <v>-86.310365392016593</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="6"/>
-        <v>-0.27310225117695319</v>
+        <v>-0.18287750282297241</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="5"/>
@@ -11410,7 +11413,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>660.88775761065574</v>
+        <v>659.63213251050809</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
@@ -11418,23 +11421,23 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>609.84815923908673</v>
+        <v>571.00562942496754</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="4"/>
-        <v>470.70713124350624</v>
+        <v>440.72679023229966</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-7.7228845267304252E-2</v>
+        <v>-0.13435746792418229</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>-51.039598371569014</v>
+        <v>-88.626503085540548</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="6"/>
-        <v>-4.7495060394509162E-3</v>
+        <v>-2.7883232372841339E-2</v>
       </c>
       <c r="M23" s="10">
         <f t="shared" si="5"/>
@@ -11450,7 +11453,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>696.87919015156342</v>
+        <v>695.62356505141577</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
@@ -11458,23 +11461,23 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>628.56464006335761</v>
+        <v>590.82238876434974</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="4"/>
-        <v>499.29671940849767</v>
+        <v>469.31637839729109</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-9.8029258232475214E-2</v>
+        <v>-0.15065788675419561</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>-68.314550088205806</v>
+        <v>-104.80117628706603</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="6"/>
-        <v>0.26933476595664008</v>
+        <v>0.12132127139528723</v>
       </c>
       <c r="M24" s="10">
         <f t="shared" si="5"/>
@@ -11490,7 +11493,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>732.47693421383997</v>
+        <v>731.22130911369231</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
@@ -11498,23 +11501,23 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>653.42750465835149</v>
+        <v>616.32983069108457</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>528.06489789748798</v>
+        <v>498.08455688628135</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-0.10792070830234596</v>
+        <v>-0.15712271646167808</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>-79.049429555488473</v>
+        <v>-114.89147842260775</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="6"/>
-        <v>0.10090303903364532</v>
+        <v>4.291066234076478E-2</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" si="5"/>
@@ -11530,7 +11533,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>768.19254759673959</v>
+        <v>766.93692249659193</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
@@ -11538,23 +11541,23 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>675.78307612444462</v>
+        <v>639.44390478476123</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>557.53079459157232</v>
+        <v>527.55045358036568</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12029467320581851</v>
+        <v>-0.16623664081370035</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>-92.409471472294967</v>
+        <v>-127.4930177118307</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="6"/>
-        <v>0.11465792893803278</v>
+        <v>5.8005134822405748E-2</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="5"/>
@@ -11570,7 +11573,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>804.43996942662159</v>
+        <v>803.18434432647393</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
@@ -11578,23 +11581,23 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>687.94516762797082</v>
+        <v>652.90114701997152</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>588.54065157667117</v>
+        <v>558.56031056546453</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14481478572190346</v>
+        <v>-0.18710922139863839</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="1"/>
-        <v>-116.49480179865077</v>
+        <v>-150.28319730650242</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="6"/>
-        <v>0.20383373479997902</v>
+        <v>0.12555944635773605</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="5"/>
@@ -11610,7 +11613,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>841.63476795515271</v>
+        <v>840.37914285500506</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
@@ -11618,23 +11621,23 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>681.99993639593185</v>
+        <v>649.15347478405397</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="4"/>
-        <v>622.48990178526105</v>
+        <v>592.50956077405442</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18967233488591712</v>
+        <v>-0.22754689915471193</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>-159.63483155922086</v>
+        <v>-191.22566807095109</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="6"/>
-        <v>0.30975807435959135</v>
+        <v>0.21611803765630874</v>
       </c>
       <c r="M28" s="10">
         <f t="shared" si="5"/>
@@ -11650,7 +11653,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>880.25424586679924</v>
+        <v>878.99862076665158</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
@@ -11658,23 +11661,23 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>650.09130843530829</v>
+        <v>620.64161946000013</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="4"/>
-        <v>661.80526156500912</v>
+        <v>631.82492055380249</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26147324879398465</v>
+        <v>-0.29392196438410301</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="1"/>
-        <v>-230.16293743149095</v>
+        <v>-258.35700130665145</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="6"/>
-        <v>0.3785523806160444</v>
+        <v>0.29169839481865167</v>
       </c>
       <c r="M29" s="10">
         <f t="shared" si="5"/>
@@ -12862,7 +12865,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13987,7 +13990,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15144,8 +15147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E28344-3097-431A-BC5E-85F1996FCA69}">
   <dimension ref="B3:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/个人定投试验.xlsx
+++ b/个人定投试验.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="博时黄金" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="沪深300" sheetId="3" r:id="rId3"/>
     <sheet name="中证500" sheetId="7" r:id="rId4"/>
     <sheet name="上证50" sheetId="9" r:id="rId5"/>
+    <sheet name="创业板c" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>基金模拟数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,7 +208,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1077,6 +1085,827 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>净值走势</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>创业板c!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>创业板c!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2877000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3581000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3553999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2632000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3011999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2956000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2374000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1689000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0955999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E73C-45B9-B3AC-D715C06C614D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="257008384"/>
+        <c:axId val="257007264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="257008384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257007264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="257007264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257008384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>收益率走势</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>创业板c!$J$6:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2831070889894362E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0461972546314427E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2385946388414593E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8106723245658214E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.582491317065999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1450464176648862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1507945919667366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1453186227588104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2032474308854395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3323510423774001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1362223435728693</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90464245963260193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94222596555003146</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89324640012384837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90356668412798491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93519225783802373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90631257054830416</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83339248102860486</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78484865139658677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73256447186342677</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65675040592782452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54121428354156154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37366058446737943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E49E-41A3-BED2-803DBCC4F903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="600639480"/>
+        <c:axId val="598877776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="600639480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598877776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="598877776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600639480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4402,6 +5231,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5278,6 +6187,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10322,6 +12263,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536FD124-B542-4CF3-A8E2-0C711CB3540A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D049585-75E3-416A-8A0E-2A5C1D00B0A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -10645,8 +12667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11740,7 +13762,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12865,7 +14887,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13990,7 +16012,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15114,7 +17136,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15147,8 +17169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E28344-3097-431A-BC5E-85F1996FCA69}">
   <dimension ref="B3:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16238,7 +18260,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16265,4 +18287,1127 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA6EA8-C02E-49D0-930F-D13E9F5BFA7C}">
+  <dimension ref="B3:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <v>150</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>E6+G6</f>
+        <v>5000</v>
+      </c>
+      <c r="I6" s="3">
+        <f>E6/D6</f>
+        <v>7541.4781297134232</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J29" si="0">(H6-E6-G6)/(E6+G6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:K29" si="1">H6-E6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7-E6</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H29" si="2">H6/D6*D7+($D$3*(1-M7))+G7</f>
+        <v>5114.1553544494718</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I29" si="3">I6+(E7-E6+G7)/D7</f>
+        <v>7541.4781297134232</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2831070889894362E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>114.15535444947182</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="10">
+        <f t="shared" ref="M7:M29" si="4">(D7-D6)/D6+$G$3</f>
+        <v>-7.3906485671191785E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>5015.2309862731572</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>7541.4781297134232</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0461972546314427E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>15.230986273157214</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L29" si="5">(J8-J7)/J7</f>
+        <v>-0.86657668099222762</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="4"/>
+        <v>-5.0144354961252136E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>5211.929731942073</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>7541.4781297134232</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2385946388414593E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>211.92973194207298</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>12.914380076329902</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="4"/>
+        <v>9.5984642457206931E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>5440.5336162282911</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>7541.4781297134232</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8106723245658214E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>440.53361622829107</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0786777399817724</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="4"/>
+        <v>1.5528442402155016E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E7:E29" si="6">E10+$D$3*(1-M11)</f>
+        <v>5154.2128257138402</v>
+      </c>
+      <c r="F11" s="3">
+        <f>E11-E10</f>
+        <v>154.21282571384018</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>5441.9463091724174</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>7789.050493999569</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.582491317065999E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>287.73348345857721</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.3663944008562256</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.8085504758932775E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.2648999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="6"/>
+        <v>5149.6133715478427</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>11046.159714997897</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>7785.4142744043456</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1450464176648862</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>5896.5463434500543</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>19.511387347158301</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="4"/>
+        <v>1.0306630277733182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.2877000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="6"/>
+        <v>5296.9096004987477</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>11392.564522889394</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>7899.8013435593548</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1507945919667366</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>6095.6549223906459</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0200360554576717E-3</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="4"/>
+        <v>1.8025140327298725E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.3036000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="6"/>
+        <v>5445.0574610252679</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>11681.383173129312</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>8013.4465265345925</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1453186227588104</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>6236.3257121040442</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>-4.7584245235004876E-3</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2347596489865671E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.3581000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="6"/>
+        <v>5588.7863655972224</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>12313.479201769653</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>8119.2773965529668</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2032474308854395</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>6724.6928361724304</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0578770811472454E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="4"/>
+        <v>4.1807302853636076E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.4581</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="6"/>
+        <v>5727.7415235384642</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>13359.103912893255</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>8214.5761812325109</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3323510423774001</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>7631.362389354791</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10729597934562511</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="4"/>
+        <v>7.3632280391723634E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.3553999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="6"/>
+        <v>5888.3066425289317</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>12578.732215578848</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>8333.0394533222752</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1362223435728693</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>6690.4255730499162</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.14720497268840324</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="4"/>
+        <v>-7.0434126603113656E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.2244999999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="6"/>
+        <v>6052.7931409795738</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>11528.406815682678</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>8467.3689743109571</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90464245963260193</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>5475.6136747031042</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.20381563982632198</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.6576656337612532E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.2632000000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>6198.0524304854944</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>12038.018366329408</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>8582.3620787329965</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94222596555003146</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>5839.9659358439139</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1545149155051982E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="4"/>
+        <v>3.1604736627194922E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.2456</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="6"/>
+        <v>6350.1423608211499</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>12022.384164898598</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>8704.4638211347756</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89324640012384837</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>5672.2418040774483</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="5"/>
+        <v>-5.1982822822751337E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.3932868904369901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.2662</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="6"/>
+        <v>6497.6616286438857</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>12368.732201023284</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>8820.9693240748602</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90356668412798491</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>5871.0705723793981</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1553681047811256E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="4"/>
+        <v>1.6538214515093089E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.3011999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="6"/>
+        <v>6643.5153642306805</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>12856.479497687171</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="3"/>
+        <v>8933.0610360229039</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93519225783802373</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>6212.9641334564903</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>3.5000818717170902E-2</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="4"/>
+        <v>2.7641762754699036E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.2956000000000001</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>6794.1609221771914</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>12951.794372274439</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
+        <v>9049.3357797296885</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90631257054830416</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>6157.6334500972471</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.0881016227062866E-2</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.3037196434059545E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.2588999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
+        <v>6948.4099187810816</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>12739.162500197814</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>9171.8625861510809</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83339248102860486</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>5790.752581416732</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
+        <v>-8.0457991965822401E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.8326644025934065E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.2374000000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="6"/>
+        <v>7100.9716790479815</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>12674.159724954146</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>9295.1547796753257</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78484865139658677</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="1"/>
+        <v>5573.1880459061649</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
+        <v>-5.8248461243738892E-2</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.7078401779331048E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.2121</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="6"/>
+        <v>7254.0385935461227</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>12568.089544704153</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>9421.4371940785441</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73256447186342677</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>5314.0509511580303</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.6616894149112357E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.0446096654275173E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.1689000000000001</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="6"/>
+        <v>7409.3846871027599</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>12275.501088032905</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>9554.3365811575386</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65675040592782452</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>4866.1164009301447</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.10349132239890606</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.5640623710914865E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.0955999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="6"/>
+        <v>7568.79096651075</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>11665.128746726708</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>9699.8333677657811</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54121428354156154</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>4096.3377802159584</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.17592089984784898</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="4"/>
+        <v>-6.2708529386602915E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="6"/>
+        <v>7734.3030147035206</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>10624.307199625453</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>9868.3277668218434</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37366058446737943</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>2890.0041849219324</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.30958846462394801</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.10341365461847386</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J6:J29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09EDD5B3-0C59-4751-852D-9A23E49AD850}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>-0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09EDD5B3-0C59-4751-852D-9A23E49AD850}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J6:J29</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>